--- a/out/xls/factoranalysis/categoryindex/imputed/clean_vaindex_imputedregs_all.xlsx
+++ b/out/xls/factoranalysis/categoryindex/imputed/clean_vaindex_imputedregs_all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Programs\Dropbox\Davis\Research Projects\Ed Lab GSR\caschls\out\xls\factoranalysis\categoryindex\imputed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2B9412B-D5DE-4C40-88E1-81129AD2FBF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32073F7A-5491-45E5-B1B3-2F184A79B2DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="51">
   <si>
     <t>Category Index</t>
   </si>
@@ -81,30 +81,12 @@
     <t>-0.05</t>
   </si>
   <si>
-    <t>(0.06)</t>
-  </si>
-  <si>
-    <t>Student Motivation</t>
-  </si>
-  <si>
-    <t>0.39***</t>
-  </si>
-  <si>
-    <t>0.04</t>
-  </si>
-  <si>
-    <t>0.36***</t>
-  </si>
-  <si>
     <t>Teacher and Staff Quality</t>
   </si>
   <si>
     <t>0.07</t>
   </si>
   <si>
-    <t>Student Support</t>
-  </si>
-  <si>
     <t>-0.04</t>
   </si>
   <si>
@@ -117,30 +99,15 @@
     <t>N</t>
   </si>
   <si>
-    <t>0.42***</t>
-  </si>
-  <si>
     <t>0.25***</t>
   </si>
   <si>
-    <t>0.14***</t>
-  </si>
-  <si>
-    <t>-0.07</t>
-  </si>
-  <si>
     <t>-0.08*</t>
   </si>
   <si>
-    <t>-0.06</t>
-  </si>
-  <si>
     <t>0.30***</t>
   </si>
   <si>
-    <t>0.21***</t>
-  </si>
-  <si>
     <t>(0.04)</t>
   </si>
   <si>
@@ -153,15 +120,9 @@
     <t>0.08*</t>
   </si>
   <si>
-    <t>-0.15***</t>
-  </si>
-  <si>
     <t>-0.14***</t>
   </si>
   <si>
-    <t>0.23***</t>
-  </si>
-  <si>
     <t>(0.05)</t>
   </si>
   <si>
@@ -183,13 +144,40 @@
     <t>0.12**</t>
   </si>
   <si>
-    <t>0.38***</t>
-  </si>
-  <si>
-    <t>0.34***</t>
-  </si>
-  <si>
     <t>0.29***</t>
+  </si>
+  <si>
+    <t>0.40***</t>
+  </si>
+  <si>
+    <t>0.17***</t>
+  </si>
+  <si>
+    <t>0.09**</t>
+  </si>
+  <si>
+    <t>-0.09**</t>
+  </si>
+  <si>
+    <t>0.32***</t>
+  </si>
+  <si>
+    <t>0.18***</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>-0.13***</t>
+  </si>
+  <si>
+    <t>0.27***</t>
+  </si>
+  <si>
+    <t>0.22***</t>
+  </si>
+  <si>
+    <t>Counseling Support</t>
   </si>
 </sst>
 </file>
@@ -551,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O16"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -566,7 +554,7 @@
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="3"/>
       <c r="B1" s="1" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -670,206 +658,206 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="F5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>33</v>
-      </c>
-      <c r="I5" t="s">
-        <v>34</v>
-      </c>
-      <c r="J5" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" t="s">
-        <v>36</v>
-      </c>
-      <c r="M5" t="s">
-        <v>37</v>
-      </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>41</v>
       </c>
       <c r="O5" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="3"/>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="C6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="H6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="I6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="J6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="L6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="M6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="3" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" t="s">
         <v>39</v>
       </c>
-      <c r="C7" t="s">
-        <v>40</v>
-      </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="I7" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="L7" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="M7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="O7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="3"/>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" s="3" t="s">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="C9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="E9" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="H9" t="s">
         <v>17</v>
@@ -878,159 +866,131 @@
         <v>17</v>
       </c>
       <c r="J9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="L9" t="s">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="M9" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="N9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="O9" t="s">
-        <v>51</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" s="3"/>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="J10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="K10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="L10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="N10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" t="s">
-        <v>52</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" t="s">
-        <v>31</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>33</v>
-      </c>
-      <c r="J11" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" t="s">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s">
-        <v>30</v>
-      </c>
-      <c r="M11" t="s">
-        <v>53</v>
-      </c>
-      <c r="N11" t="s">
-        <v>54</v>
-      </c>
-      <c r="O11" t="s">
-        <v>36</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3"/>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A12" s="3"/>
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>45</v>
-      </c>
-      <c r="F12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" t="s">
-        <v>45</v>
-      </c>
-      <c r="M12" t="s">
-        <v>45</v>
-      </c>
-      <c r="N12" t="s">
-        <v>45</v>
-      </c>
-      <c r="O12" t="s">
-        <v>45</v>
+      <c r="A12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="3">
+        <v>909</v>
+      </c>
+      <c r="C12" s="3">
+        <v>909</v>
+      </c>
+      <c r="D12" s="3">
+        <v>898</v>
+      </c>
+      <c r="E12" s="3">
+        <v>897</v>
+      </c>
+      <c r="F12" s="3">
+        <v>897</v>
+      </c>
+      <c r="G12" s="3">
+        <v>897</v>
+      </c>
+      <c r="H12" s="3">
+        <v>898</v>
+      </c>
+      <c r="I12" s="3">
+        <v>897</v>
+      </c>
+      <c r="J12" s="3">
+        <v>897</v>
+      </c>
+      <c r="K12" s="3">
+        <v>897</v>
+      </c>
+      <c r="L12" s="3">
+        <v>898</v>
+      </c>
+      <c r="M12" s="3">
+        <v>897</v>
+      </c>
+      <c r="N12" s="3">
+        <v>897</v>
+      </c>
+      <c r="O12" s="3">
+        <v>897</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.35">
@@ -1052,86 +1012,22 @@
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" s="3">
-        <v>909</v>
-      </c>
-      <c r="C14" s="3">
-        <v>909</v>
-      </c>
-      <c r="D14" s="3">
-        <v>898</v>
-      </c>
-      <c r="E14" s="3">
-        <v>897</v>
-      </c>
-      <c r="F14" s="3">
-        <v>897</v>
-      </c>
-      <c r="G14" s="3">
-        <v>897</v>
-      </c>
-      <c r="H14" s="3">
-        <v>898</v>
-      </c>
-      <c r="I14" s="3">
-        <v>897</v>
-      </c>
-      <c r="J14" s="3">
-        <v>897</v>
-      </c>
-      <c r="K14" s="3">
-        <v>897</v>
-      </c>
-      <c r="L14" s="3">
-        <v>898</v>
-      </c>
-      <c r="M14" s="3">
-        <v>897</v>
-      </c>
-      <c r="N14" s="3">
-        <v>897</v>
-      </c>
-      <c r="O14" s="3">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A15" s="3"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A16" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3"/>
+      <c r="M14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">
